--- a/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.748061636797729</v>
+        <v>5.468948626587178</v>
       </c>
       <c r="C2">
-        <v>0.693360607170149</v>
+        <v>1.677887332230739</v>
       </c>
       <c r="D2">
-        <v>0.3300083027013727</v>
+        <v>0.04975252548103271</v>
       </c>
       <c r="E2">
-        <v>0.2882898629719008</v>
+        <v>1.509398994077884</v>
       </c>
       <c r="F2">
-        <v>6.556320324456607</v>
+        <v>2.933096948555573</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,30 +451,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4969369078443506</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.7662818121604431</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.199076332032519</v>
+        <v>4.678966926910277</v>
       </c>
       <c r="C3">
-        <v>0.5915084348636981</v>
+        <v>1.433953302596422</v>
       </c>
       <c r="D3">
-        <v>0.2898372960964366</v>
+        <v>0.04483094474465332</v>
       </c>
       <c r="E3">
-        <v>0.2464826211984601</v>
+        <v>1.278896600640849</v>
       </c>
       <c r="F3">
-        <v>5.70230391064058</v>
+        <v>2.546928408920422</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -486,30 +498,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4235388103242244</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.7857303719789286</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.872337034240445</v>
+        <v>4.206923039662001</v>
       </c>
       <c r="C4">
-        <v>0.5308724977791996</v>
+        <v>1.288272118921043</v>
       </c>
       <c r="D4">
-        <v>0.2660158308662517</v>
+        <v>0.04212507575009283</v>
       </c>
       <c r="E4">
-        <v>0.2216603996325759</v>
+        <v>1.142959030617703</v>
       </c>
       <c r="F4">
-        <v>5.194853676059211</v>
+        <v>2.32000049116462</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -527,30 +545,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3799191838235103</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.800194579563275</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.74136408621689</v>
+        <v>4.017276479079726</v>
       </c>
       <c r="C5">
-        <v>0.5065547891466906</v>
+        <v>1.229751546091336</v>
       </c>
       <c r="D5">
-        <v>0.2564850960946359</v>
+        <v>0.04109012775894172</v>
       </c>
       <c r="E5">
-        <v>0.2117233221672166</v>
+        <v>1.088714524515581</v>
       </c>
       <c r="F5">
-        <v>4.99164027922987</v>
+        <v>2.229707208136261</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -568,30 +592,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3624466752085809</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.8066586070511264</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.71973623029055</v>
+        <v>3.985934970848064</v>
       </c>
       <c r="C6">
-        <v>0.5025382284303532</v>
+        <v>1.220080428933215</v>
       </c>
       <c r="D6">
-        <v>0.2549122483020625</v>
+        <v>0.04092205528577608</v>
       </c>
       <c r="E6">
-        <v>0.2100831061247632</v>
+        <v>1.079770082724465</v>
       </c>
       <c r="F6">
-        <v>4.958094712947798</v>
+        <v>2.214835746127292</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -609,30 +639,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3595620411790961</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.8077646426228</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.87056239572405</v>
+        <v>4.204355086017699</v>
       </c>
       <c r="C7">
-        <v>0.5305430590072433</v>
+        <v>1.287479690451107</v>
       </c>
       <c r="D7">
-        <v>0.2658866240503528</v>
+        <v>0.04211085813279425</v>
       </c>
       <c r="E7">
-        <v>0.2215257060713967</v>
+        <v>1.142223117418297</v>
       </c>
       <c r="F7">
-        <v>5.192099419093296</v>
+        <v>2.318774393699485</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -650,30 +686,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3796823918985979</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.8002795277680903</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.556350894422849</v>
+        <v>5.193503022238531</v>
       </c>
       <c r="C8">
-        <v>0.6577912788367826</v>
+        <v>1.592809372026807</v>
       </c>
       <c r="D8">
-        <v>0.3159593323529037</v>
+        <v>0.04798230693134542</v>
       </c>
       <c r="E8">
-        <v>0.2736761831079448</v>
+        <v>1.428594247013876</v>
       </c>
       <c r="F8">
-        <v>6.257906253986988</v>
+        <v>2.797587846024101</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -691,30 +733,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4712893532311924</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.7724222269739869</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.006141678243182</v>
+        <v>7.266552242377998</v>
       </c>
       <c r="C9">
-        <v>0.9271074654210167</v>
+        <v>2.234087656309498</v>
       </c>
       <c r="D9">
-        <v>0.4227511649558835</v>
+        <v>0.06265345860877858</v>
       </c>
       <c r="E9">
-        <v>0.3845565466247933</v>
+        <v>2.048752004630799</v>
       </c>
       <c r="F9">
-        <v>8.518572714657239</v>
+        <v>3.837808713342554</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -732,30 +780,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6657170157222225</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.7413072283577549</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.175053751511655</v>
+        <v>8.923475356317113</v>
       </c>
       <c r="C10">
-        <v>1.14524509945818</v>
+        <v>2.748802828392968</v>
       </c>
       <c r="D10">
-        <v>0.5097413207098214</v>
+        <v>0.07652321467882217</v>
       </c>
       <c r="E10">
-        <v>0.4745481650392804</v>
+        <v>2.565874317756382</v>
       </c>
       <c r="F10">
-        <v>10.34612531335125</v>
+        <v>4.699531739604822</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -773,30 +827,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8233263131410951</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.7388851306768061</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.74133001409075</v>
+        <v>9.722346547608367</v>
       </c>
       <c r="C11">
-        <v>1.251384519412227</v>
+        <v>2.997854856208448</v>
       </c>
       <c r="D11">
-        <v>0.5521530208989702</v>
+        <v>0.08387364819046894</v>
       </c>
       <c r="E11">
-        <v>0.5183280505171197</v>
+        <v>2.822770576626354</v>
       </c>
       <c r="F11">
-        <v>11.23240395667347</v>
+        <v>5.123616226612342</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -814,30 +874,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8999720865290044</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.7440888791622911</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.962070861679081</v>
+        <v>10.03316944382584</v>
       </c>
       <c r="C12">
-        <v>1.292852707627134</v>
+        <v>3.094930964864091</v>
       </c>
       <c r="D12">
-        <v>0.5687315011689975</v>
+        <v>0.08685021250185798</v>
       </c>
       <c r="E12">
-        <v>0.535425962877639</v>
+        <v>2.92415290137167</v>
       </c>
       <c r="F12">
-        <v>11.57798919307555</v>
+        <v>5.29005906679717</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -855,30 +921,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9299029922743216</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.7471793718667925</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.914224641451142</v>
+        <v>9.965823877422508</v>
       </c>
       <c r="C13">
-        <v>1.283859695134367</v>
+        <v>3.073888925705432</v>
       </c>
       <c r="D13">
-        <v>0.5651359114740444</v>
+        <v>0.08619972176610702</v>
       </c>
       <c r="E13">
-        <v>0.5317184217527213</v>
+        <v>2.902116598049176</v>
       </c>
       <c r="F13">
-        <v>11.50307865632368</v>
+        <v>5.253928692331641</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -896,30 +968,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9234128009129705</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.7464598862978278</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.759355157453001</v>
+        <v>9.74773929970911</v>
       </c>
       <c r="C14">
-        <v>1.254768665617547</v>
+        <v>3.005781702187164</v>
       </c>
       <c r="D14">
-        <v>0.5535058228491039</v>
+        <v>0.08411436238854009</v>
       </c>
       <c r="E14">
-        <v>0.5197235517080969</v>
+        <v>2.831022305354807</v>
       </c>
       <c r="F14">
-        <v>11.26062175006086</v>
+        <v>5.137183913829489</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -937,30 +1015,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9024150322354387</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.7443192435235062</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.665360111680116</v>
+        <v>9.615301125532142</v>
       </c>
       <c r="C15">
-        <v>1.237125408598899</v>
+        <v>2.964445859002581</v>
       </c>
       <c r="D15">
-        <v>0.5464532939400328</v>
+        <v>0.08286369534387461</v>
       </c>
       <c r="E15">
-        <v>0.5124477974350583</v>
+        <v>2.788044078644589</v>
       </c>
       <c r="F15">
-        <v>11.11347939342937</v>
+        <v>5.066479271283583</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -978,30 +1062,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8896781047116775</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.7431612797168725</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.138847620086096</v>
+        <v>8.872319305275539</v>
       </c>
       <c r="C16">
-        <v>1.138470034040893</v>
+        <v>2.73287577896582</v>
       </c>
       <c r="D16">
-        <v>0.5070354917942268</v>
+        <v>0.07606720517555488</v>
       </c>
       <c r="E16">
-        <v>0.4717530412768198</v>
+        <v>2.549598545952335</v>
       </c>
       <c r="F16">
-        <v>10.2894752026946</v>
+        <v>4.672560404155917</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1019,30 +1109,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8184324212165137</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.7386888151725373</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.825540185285377</v>
+        <v>8.429223737367238</v>
       </c>
       <c r="C17">
-        <v>1.079895135337154</v>
+        <v>2.595021789212751</v>
       </c>
       <c r="D17">
-        <v>0.4836506930446944</v>
+        <v>0.07219131098842269</v>
       </c>
       <c r="E17">
-        <v>0.4475860348475251</v>
+        <v>2.409474113727583</v>
       </c>
       <c r="F17">
-        <v>9.799355446995492</v>
+        <v>4.439897914304254</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1060,30 +1156,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7761161682787403</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.7376938853977606</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.648486845221555</v>
+        <v>8.178481125860174</v>
       </c>
       <c r="C18">
-        <v>1.046833916666856</v>
+        <v>2.517088938209895</v>
       </c>
       <c r="D18">
-        <v>0.4704596518581923</v>
+        <v>0.07005674833248321</v>
       </c>
       <c r="E18">
-        <v>0.4339452639451267</v>
+        <v>2.330842408864342</v>
       </c>
       <c r="F18">
-        <v>9.522469892293969</v>
+        <v>4.30900548108059</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1101,30 +1203,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7522285035362017</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.7376994779226749</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.589045869167649</v>
+        <v>8.094243164403849</v>
       </c>
       <c r="C19">
-        <v>1.035740676361598</v>
+        <v>2.490919138164372</v>
       </c>
       <c r="D19">
-        <v>0.4660350272100686</v>
+        <v>0.06934918052721173</v>
       </c>
       <c r="E19">
-        <v>0.4293683816991347</v>
+        <v>2.304531265679685</v>
       </c>
       <c r="F19">
-        <v>9.429528301662231</v>
+        <v>4.2651582891462</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1142,30 +1250,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7442129694540256</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.7377950564800813</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.858557409036337</v>
+        <v>8.475954642399643</v>
       </c>
       <c r="C20">
-        <v>1.086063578197383</v>
+        <v>2.609552182530877</v>
       </c>
       <c r="D20">
-        <v>0.4861125058039022</v>
+        <v>0.07259382790540769</v>
       </c>
       <c r="E20">
-        <v>0.4501310923675987</v>
+        <v>2.424181162554504</v>
       </c>
       <c r="F20">
-        <v>9.850996812982913</v>
+        <v>4.464354231647661</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1183,30 +1297,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7805728248841319</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.7377386362789053</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.804660467634449</v>
+        <v>9.811553388556035</v>
       </c>
       <c r="C21">
-        <v>1.263276139850603</v>
+        <v>3.025705489588518</v>
       </c>
       <c r="D21">
-        <v>0.5569067761736051</v>
+        <v>0.08472122541970606</v>
       </c>
       <c r="E21">
-        <v>0.5232316028097657</v>
+        <v>2.851783566085032</v>
       </c>
       <c r="F21">
-        <v>11.33154729445306</v>
+        <v>5.171304195904781</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1224,30 +1344,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9085561463200946</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.7449155932868194</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.460657041809441</v>
+        <v>10.7341459453296</v>
       </c>
       <c r="C22">
-        <v>1.386724670035761</v>
+        <v>3.314246898120473</v>
       </c>
       <c r="D22">
-        <v>0.606269723282935</v>
+        <v>0.09380444722485493</v>
       </c>
       <c r="E22">
-        <v>0.5741106408286853</v>
+        <v>3.15588561735413</v>
       </c>
       <c r="F22">
-        <v>12.35869979449205</v>
+        <v>5.668312287573997</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1265,30 +1391,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9976206736678961</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.756283968867038</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.1065468297395</v>
+        <v>10.23644040212434</v>
       </c>
       <c r="C23">
-        <v>1.320023885574187</v>
+        <v>3.158472466040962</v>
       </c>
       <c r="D23">
-        <v>0.5795958987470442</v>
+        <v>0.08883230514324225</v>
       </c>
       <c r="E23">
-        <v>0.5466263110425587</v>
+        <v>2.990903722353806</v>
       </c>
       <c r="F23">
-        <v>11.80419986828423</v>
+        <v>5.399336969615632</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1306,30 +1438,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9495094299618358</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.7495171252933943</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.843620851660148</v>
+        <v>8.45481527402012</v>
       </c>
       <c r="C24">
-        <v>1.083272932028478</v>
+        <v>2.60297892057946</v>
       </c>
       <c r="D24">
-        <v>0.4849987394847517</v>
+        <v>0.07241156109907365</v>
       </c>
       <c r="E24">
-        <v>0.4489796912377386</v>
+        <v>2.417526171041615</v>
       </c>
       <c r="F24">
-        <v>9.827634666272274</v>
+        <v>4.453288684573408</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1347,30 +1485,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7785566122967822</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.7377166205309749</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.599089164497116</v>
+        <v>6.686710289153666</v>
       </c>
       <c r="C25">
-        <v>0.8513907738913247</v>
+        <v>2.05446383476999</v>
       </c>
       <c r="D25">
-        <v>0.3926413964268107</v>
+        <v>0.0582428326840585</v>
       </c>
       <c r="E25">
-        <v>0.3533410772354131</v>
+        <v>1.872432136974894</v>
       </c>
       <c r="F25">
-        <v>7.883029264178674</v>
+        <v>3.542329387905255</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1388,9 +1532,15 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6110153149199249</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.7466566342944674</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.468948626587178</v>
+        <v>0.6839470991770611</v>
       </c>
       <c r="C2">
-        <v>1.677887332230739</v>
+        <v>0.2699530566947601</v>
       </c>
       <c r="D2">
-        <v>0.04975252548103271</v>
+        <v>0.08331301686317261</v>
       </c>
       <c r="E2">
-        <v>1.509398994077884</v>
+        <v>0.3153640761499261</v>
       </c>
       <c r="F2">
-        <v>2.933096948555573</v>
+        <v>2.563027688786832</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.715441576359623</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9492210266276402</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6045291850896959</v>
       </c>
       <c r="N2">
-        <v>0.7662818121604431</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.678966926910277</v>
+        <v>0.5891893657842786</v>
       </c>
       <c r="C3">
-        <v>1.433953302596422</v>
+        <v>0.2326495196138438</v>
       </c>
       <c r="D3">
-        <v>0.04483094474465332</v>
+        <v>0.08217674542900255</v>
       </c>
       <c r="E3">
-        <v>1.278896600640849</v>
+        <v>0.2729741838457471</v>
       </c>
       <c r="F3">
-        <v>2.546928408920422</v>
+        <v>2.329424382863721</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.580555693805834</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8175695391651914</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5213586449303804</v>
       </c>
       <c r="N3">
-        <v>0.7857303719789286</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.206923039662001</v>
+        <v>0.5318087596488965</v>
       </c>
       <c r="C4">
-        <v>1.288272118921043</v>
+        <v>0.2101426817513641</v>
       </c>
       <c r="D4">
-        <v>0.04212507575009283</v>
+        <v>0.08148190537964695</v>
       </c>
       <c r="E4">
-        <v>1.142959030617703</v>
+        <v>0.2474784822560636</v>
       </c>
       <c r="F4">
-        <v>2.32000049116462</v>
+        <v>2.189163753875278</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.499637656250869</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7379420738891156</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4712051907194237</v>
       </c>
       <c r="N4">
-        <v>0.800194579563275</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.017276479079726</v>
+        <v>0.5085985043030234</v>
       </c>
       <c r="C5">
-        <v>1.229751546091336</v>
+        <v>0.2010572669444173</v>
       </c>
       <c r="D5">
-        <v>0.04109012775894172</v>
+        <v>0.08119896003861982</v>
       </c>
       <c r="E5">
-        <v>1.088714524515581</v>
+        <v>0.2372049937698009</v>
       </c>
       <c r="F5">
-        <v>2.229707208136261</v>
+        <v>2.132721718595889</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.467092682598206</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7057543370460024</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4509662712168208</v>
       </c>
       <c r="N5">
-        <v>0.8066586070511264</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.985934970848064</v>
+        <v>0.5047541012367844</v>
       </c>
       <c r="C6">
-        <v>1.220080428933215</v>
+        <v>0.1995534733841993</v>
       </c>
       <c r="D6">
-        <v>0.04092205528577608</v>
+        <v>0.08115197569516042</v>
       </c>
       <c r="E6">
-        <v>1.079770082724465</v>
+        <v>0.2355056224560101</v>
       </c>
       <c r="F6">
-        <v>2.214835746127292</v>
+        <v>2.123390467838888</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.461713218899561</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7004241796099109</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4476167825733484</v>
       </c>
       <c r="N6">
-        <v>0.8077646426228</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.204355086017699</v>
+        <v>0.5314950745639635</v>
       </c>
       <c r="C7">
-        <v>1.287479690451107</v>
+        <v>0.2100198205422998</v>
       </c>
       <c r="D7">
-        <v>0.04211085813279425</v>
+        <v>0.08147808927854427</v>
       </c>
       <c r="E7">
-        <v>1.142223117418297</v>
+        <v>0.2473394819743007</v>
       </c>
       <c r="F7">
-        <v>2.318774393699485</v>
+        <v>2.188399765201183</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.49919706482288</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7375069753119305</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4709314745705484</v>
       </c>
       <c r="N7">
-        <v>0.8002795277680903</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.193503022238531</v>
+        <v>0.6510904250090448</v>
       </c>
       <c r="C8">
-        <v>1.592809372026807</v>
+        <v>0.2569996552439306</v>
       </c>
       <c r="D8">
-        <v>0.04798230693134542</v>
+        <v>0.0829203248415098</v>
       </c>
       <c r="E8">
-        <v>1.428594247013876</v>
+        <v>0.3006266381055127</v>
       </c>
       <c r="F8">
-        <v>2.797587846024101</v>
+        <v>2.481771089017997</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.668507641005505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9035504357545108</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5756430774860632</v>
       </c>
       <c r="N8">
-        <v>0.7724222269739869</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.266552242377998</v>
+        <v>0.8933968796148406</v>
       </c>
       <c r="C9">
-        <v>2.234087656309498</v>
+        <v>0.3529656154821055</v>
       </c>
       <c r="D9">
-        <v>0.06265345860877858</v>
+        <v>0.08579619722084075</v>
       </c>
       <c r="E9">
-        <v>2.048752004630799</v>
+        <v>0.4102183413651304</v>
       </c>
       <c r="F9">
-        <v>3.837808713342554</v>
+        <v>3.086335014154059</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.018027161360038</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.240852066034762</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.78976329583233</v>
       </c>
       <c r="N9">
-        <v>0.7413072283577549</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.923475356317113</v>
+        <v>1.078372866056753</v>
       </c>
       <c r="C10">
-        <v>2.748802828392968</v>
+        <v>0.4268754423398207</v>
       </c>
       <c r="D10">
-        <v>0.07652321467882217</v>
+        <v>0.08797733813631226</v>
       </c>
       <c r="E10">
-        <v>2.565874317756382</v>
+        <v>0.4952086748668805</v>
       </c>
       <c r="F10">
-        <v>4.699531739604822</v>
+        <v>3.554666887735067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.289205216341884</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.499076777162145</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9548164608235297</v>
       </c>
       <c r="N10">
-        <v>0.7388851306768061</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.722346547608367</v>
+        <v>1.164594589391953</v>
       </c>
       <c r="C11">
-        <v>2.997854856208448</v>
+        <v>0.4615099230924784</v>
       </c>
       <c r="D11">
-        <v>0.08387364819046894</v>
+        <v>0.08899449279046223</v>
       </c>
       <c r="E11">
-        <v>2.822770576626354</v>
+        <v>0.5351955368936672</v>
       </c>
       <c r="F11">
-        <v>5.123616226612342</v>
+        <v>3.774567681676842</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.416634411738613</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.6196456186033</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.032194323579049</v>
       </c>
       <c r="N11">
-        <v>0.7440888791622911</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.03316944382584</v>
+        <v>1.197596070230986</v>
       </c>
       <c r="C12">
-        <v>3.094930964864091</v>
+        <v>0.4747966320328487</v>
       </c>
       <c r="D12">
-        <v>0.08685021250185798</v>
+        <v>0.08938422006702496</v>
       </c>
       <c r="E12">
-        <v>2.92415290137167</v>
+        <v>0.550561637891505</v>
       </c>
       <c r="F12">
-        <v>5.29005906679717</v>
+        <v>3.858975015710257</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.465562330749208</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.66582711284633</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.06188349161441</v>
       </c>
       <c r="N12">
-        <v>0.7471793718667925</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.965823877422508</v>
+        <v>1.190472082530306</v>
       </c>
       <c r="C13">
-        <v>3.073888925705432</v>
+        <v>0.4719270336018155</v>
       </c>
       <c r="D13">
-        <v>0.08619972176610702</v>
+        <v>0.08930006605892515</v>
       </c>
       <c r="E13">
-        <v>2.902116598049176</v>
+        <v>0.5472417324717327</v>
       </c>
       <c r="F13">
-        <v>5.253928692331641</v>
+        <v>3.840743294937795</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.45499336888264</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.655856407691999</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.055471146609932</v>
       </c>
       <c r="N13">
-        <v>0.7464598862978278</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.74773929970911</v>
+        <v>1.167302277671553</v>
       </c>
       <c r="C14">
-        <v>3.005781702187164</v>
+        <v>0.4625994345579443</v>
       </c>
       <c r="D14">
-        <v>0.08411436238854009</v>
+        <v>0.08902645864697689</v>
       </c>
       <c r="E14">
-        <v>2.831022305354807</v>
+        <v>0.5364550195603073</v>
       </c>
       <c r="F14">
-        <v>5.137183913829489</v>
+        <v>3.78148823997617</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.420645705968056</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.623433996682422</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.03462873811462</v>
       </c>
       <c r="N14">
-        <v>0.7443192435235062</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.615301125532142</v>
+        <v>1.153157512962849</v>
       </c>
       <c r="C15">
-        <v>2.964445859002581</v>
+        <v>0.4569091504758376</v>
       </c>
       <c r="D15">
-        <v>0.08286369534387461</v>
+        <v>0.08885948999344606</v>
       </c>
       <c r="E15">
-        <v>2.788044078644589</v>
+        <v>0.5298780793403139</v>
       </c>
       <c r="F15">
-        <v>5.066479271283583</v>
+        <v>3.745345463321854</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.399697241268811</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.603645165910933</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.021914515034055</v>
       </c>
       <c r="N15">
-        <v>0.7431612797168725</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.872319305275539</v>
+        <v>1.07278420129137</v>
       </c>
       <c r="C16">
-        <v>2.73287577896582</v>
+        <v>0.4246345039372272</v>
       </c>
       <c r="D16">
-        <v>0.07606720517555488</v>
+        <v>0.08791144633268289</v>
       </c>
       <c r="E16">
-        <v>2.549598545952335</v>
+        <v>0.4926248557178781</v>
       </c>
       <c r="F16">
-        <v>4.672560404155917</v>
+        <v>3.540446208220544</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.280966598365296</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.491266239477852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9498105921419366</v>
       </c>
       <c r="N16">
-        <v>0.7386888151725373</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.429223737367238</v>
+        <v>1.024044903210296</v>
       </c>
       <c r="C17">
-        <v>2.595021789212751</v>
+        <v>0.4051117478219624</v>
       </c>
       <c r="D17">
-        <v>0.07219131098842269</v>
+        <v>0.08733688931135219</v>
       </c>
       <c r="E17">
-        <v>2.409474113727583</v>
+        <v>0.4701329256978966</v>
       </c>
       <c r="F17">
-        <v>4.439897914304254</v>
+        <v>3.416604047871544</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.20923089731761</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.423172788115693</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9062038027631303</v>
       </c>
       <c r="N17">
-        <v>0.7376938853977606</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.178481125860174</v>
+        <v>0.9962031695948781</v>
       </c>
       <c r="C18">
-        <v>2.517088938209895</v>
+        <v>0.3939763587640925</v>
       </c>
       <c r="D18">
-        <v>0.07005674833248321</v>
+        <v>0.0870087022695003</v>
       </c>
       <c r="E18">
-        <v>2.330842408864342</v>
+        <v>0.4573185727633131</v>
       </c>
       <c r="F18">
-        <v>4.30900548108059</v>
+        <v>3.346008514461516</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.168347561147797</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.384293887195014</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8813344192489225</v>
       </c>
       <c r="N18">
-        <v>0.7376994779226749</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.094243164403849</v>
+        <v>0.98680787514337</v>
       </c>
       <c r="C19">
-        <v>2.490919138164372</v>
+        <v>0.3902214460077573</v>
       </c>
       <c r="D19">
-        <v>0.06934918052721173</v>
+        <v>0.08689794845632548</v>
       </c>
       <c r="E19">
-        <v>2.304531265679685</v>
+        <v>0.4529999246771226</v>
       </c>
       <c r="F19">
-        <v>4.2651582891462</v>
+        <v>3.322210885436732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.154567419173546</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.371177144460518</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8729488501241889</v>
       </c>
       <c r="N19">
-        <v>0.7377950564800813</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.475954642399643</v>
+        <v>1.029213069523735</v>
       </c>
       <c r="C20">
-        <v>2.609552182530877</v>
+        <v>0.4071801163129862</v>
       </c>
       <c r="D20">
-        <v>0.07259382790540769</v>
+        <v>0.08739780900997118</v>
       </c>
       <c r="E20">
-        <v>2.424181162554504</v>
+        <v>0.4725143318889664</v>
       </c>
       <c r="F20">
-        <v>4.464354231647661</v>
+        <v>3.429720484976968</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.216827646461141</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.430391244548844</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9108234728392546</v>
       </c>
       <c r="N20">
-        <v>0.7377386362789053</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.811553388556035</v>
+        <v>1.174097827486179</v>
       </c>
       <c r="C21">
-        <v>3.025705489588518</v>
+        <v>0.4653343035296302</v>
       </c>
       <c r="D21">
-        <v>0.08472122541970606</v>
+        <v>0.0891066918698229</v>
       </c>
       <c r="E21">
-        <v>2.851783566085032</v>
+        <v>0.5396169720314745</v>
       </c>
       <c r="F21">
-        <v>5.171304195904781</v>
+        <v>3.798860779316271</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.430715420868083</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.632942328933893</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.040739634260461</v>
       </c>
       <c r="N21">
-        <v>0.7449155932868194</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.7341459453296</v>
+        <v>1.270864663681465</v>
       </c>
       <c r="C22">
-        <v>3.314246898120473</v>
+        <v>0.5043547897987253</v>
       </c>
       <c r="D22">
-        <v>0.09380444722485493</v>
+        <v>0.09025062907547721</v>
       </c>
       <c r="E22">
-        <v>3.15588561735413</v>
+        <v>0.5847965857255844</v>
       </c>
       <c r="F22">
-        <v>5.668312287573997</v>
+        <v>4.046817931600657</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.574476407040905</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.768423287301829</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.127940464226548</v>
       </c>
       <c r="N22">
-        <v>0.756283968867038</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.23644040212434</v>
+        <v>1.219009245095634</v>
       </c>
       <c r="C23">
-        <v>3.158472466040962</v>
+        <v>0.4834267033710944</v>
       </c>
       <c r="D23">
-        <v>0.08883230514324225</v>
+        <v>0.08963725605392625</v>
       </c>
       <c r="E23">
-        <v>2.990903722353806</v>
+        <v>0.5605499656090132</v>
       </c>
       <c r="F23">
-        <v>5.399336969615632</v>
+        <v>3.913810859872683</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.497353000679368</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.695802080549925</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.08116879876971</v>
       </c>
       <c r="N23">
-        <v>0.7495171252933943</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.45481527402012</v>
+        <v>1.026875987464933</v>
       </c>
       <c r="C24">
-        <v>2.60297892057946</v>
+        <v>0.4062447331561998</v>
       </c>
       <c r="D24">
-        <v>0.07241156109907365</v>
+        <v>0.08737026064042652</v>
       </c>
       <c r="E24">
-        <v>2.417526171041615</v>
+        <v>0.4714373375756722</v>
       </c>
       <c r="F24">
-        <v>4.453288684573408</v>
+        <v>3.423788676746057</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.213392046137173</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.42712694856246</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9087342990185689</v>
       </c>
       <c r="N24">
-        <v>0.7377166205309749</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.686710289153666</v>
+        <v>0.8267993327928309</v>
       </c>
       <c r="C25">
-        <v>2.05446383476999</v>
+        <v>0.3264904895363543</v>
       </c>
       <c r="D25">
-        <v>0.0582428326840585</v>
+        <v>0.08500931460825711</v>
       </c>
       <c r="E25">
-        <v>1.872432136974894</v>
+        <v>0.3798934350506613</v>
       </c>
       <c r="F25">
-        <v>3.542329387905255</v>
+        <v>2.919037925736063</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.921238125961267</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.148033507380092</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7306673738886218</v>
       </c>
       <c r="N25">
-        <v>0.7466566342944674</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6839470991770611</v>
+        <v>0.2891508418386479</v>
       </c>
       <c r="C2">
-        <v>0.2699530566947601</v>
+        <v>0.1067110064959991</v>
       </c>
       <c r="D2">
-        <v>0.08331301686317261</v>
+        <v>0.08690141491899794</v>
       </c>
       <c r="E2">
-        <v>0.3153640761499261</v>
+        <v>0.136257802795015</v>
       </c>
       <c r="F2">
-        <v>2.563027688786832</v>
+        <v>2.073173598615554</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.715441576359623</v>
+        <v>1.50377406827981</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9492210266276402</v>
+        <v>0.3934059789598336</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6045291850896959</v>
+        <v>0.2581166958739658</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5891893657842786</v>
+        <v>0.2669171553449701</v>
       </c>
       <c r="C3">
-        <v>0.2326495196138438</v>
+        <v>0.09709692343326992</v>
       </c>
       <c r="D3">
-        <v>0.08217674542900255</v>
+        <v>0.0860362689062093</v>
       </c>
       <c r="E3">
-        <v>0.2729741838457471</v>
+        <v>0.1251582388022214</v>
       </c>
       <c r="F3">
-        <v>2.329424382863721</v>
+        <v>2.010269201892342</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.580555693805834</v>
+        <v>1.466216486311225</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8175695391651914</v>
+        <v>0.3615412303505536</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5213586449303804</v>
+        <v>0.2371571902339298</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5318087596488965</v>
+        <v>0.2535071141164167</v>
       </c>
       <c r="C4">
-        <v>0.2101426817513641</v>
+        <v>0.09125632574736642</v>
       </c>
       <c r="D4">
-        <v>0.08148190537964695</v>
+        <v>0.08549156246981227</v>
       </c>
       <c r="E4">
-        <v>0.2474784822560636</v>
+        <v>0.1184174020750959</v>
       </c>
       <c r="F4">
-        <v>2.189163753875278</v>
+        <v>1.972309074682542</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.499637656250869</v>
+        <v>1.443527407694191</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7379420738891156</v>
+        <v>0.3422739594771258</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4712051907194237</v>
+        <v>0.2244549096416435</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5085985043030234</v>
+        <v>0.2481029561336356</v>
       </c>
       <c r="C5">
-        <v>0.2010572669444173</v>
+        <v>0.08889176286467659</v>
       </c>
       <c r="D5">
-        <v>0.08119896003861982</v>
+        <v>0.08526616324944669</v>
       </c>
       <c r="E5">
-        <v>0.2372049937698009</v>
+        <v>0.1156888395406028</v>
       </c>
       <c r="F5">
-        <v>2.132721718595889</v>
+        <v>1.957005840836345</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.467092682598206</v>
+        <v>1.434374161633642</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7057543370460024</v>
+        <v>0.3344968874323797</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4509662712168208</v>
+        <v>0.2193201731428687</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5047541012367844</v>
+        <v>0.2472092509668187</v>
       </c>
       <c r="C6">
-        <v>0.1995534733841993</v>
+        <v>0.08850006149637579</v>
       </c>
       <c r="D6">
-        <v>0.08115197569516042</v>
+        <v>0.08522852797957725</v>
       </c>
       <c r="E6">
-        <v>0.2355056224560101</v>
+        <v>0.1152368650859543</v>
       </c>
       <c r="F6">
-        <v>2.123390467838888</v>
+        <v>1.954474737007047</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.461713218899561</v>
+        <v>1.432859853972829</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7004241796099109</v>
+        <v>0.33320999877661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4476167825733484</v>
+        <v>0.2184700507953892</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5314950745639635</v>
+        <v>0.2534339868673214</v>
       </c>
       <c r="C7">
-        <v>0.2100198205422998</v>
+        <v>0.09122437379566861</v>
       </c>
       <c r="D7">
-        <v>0.08147808927854427</v>
+        <v>0.08548853657454458</v>
       </c>
       <c r="E7">
-        <v>0.2473394819743007</v>
+        <v>0.1183805297003673</v>
       </c>
       <c r="F7">
-        <v>2.188399765201183</v>
+        <v>1.972102019826565</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.49919706482288</v>
+        <v>1.443403589210035</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7375069753119305</v>
+        <v>0.3421687740369919</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4709314745705484</v>
+        <v>0.2243854931377101</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6510904250090448</v>
+        <v>0.2814344113429001</v>
       </c>
       <c r="C8">
-        <v>0.2569996552439306</v>
+        <v>0.1033829862603568</v>
       </c>
       <c r="D8">
-        <v>0.0829203248415098</v>
+        <v>0.08660589618234837</v>
       </c>
       <c r="E8">
-        <v>0.3006266381055127</v>
+        <v>0.1324150529917816</v>
       </c>
       <c r="F8">
-        <v>2.481771089017997</v>
+        <v>2.051345845206285</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.668507641005505</v>
+        <v>1.490746713266972</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9035504357545108</v>
+        <v>0.3823569544607608</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5756430774860632</v>
+        <v>0.2508549414455103</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8933968796148406</v>
+        <v>0.3382718547082391</v>
       </c>
       <c r="C9">
-        <v>0.3529656154821055</v>
+        <v>0.1277314873181297</v>
       </c>
       <c r="D9">
-        <v>0.08579619722084075</v>
+        <v>0.0886913522468511</v>
       </c>
       <c r="E9">
-        <v>0.4102183413651304</v>
+        <v>0.160542042724714</v>
       </c>
       <c r="F9">
-        <v>3.086335014154059</v>
+        <v>2.212060838129958</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.018027161360038</v>
+        <v>1.586568621275887</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.240852066034762</v>
+        <v>0.4635513476988251</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.78976329583233</v>
+        <v>0.3041085383462558</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.078372866056753</v>
+        <v>0.3812282067261208</v>
       </c>
       <c r="C10">
-        <v>0.4268754423398207</v>
+        <v>0.1459438294197923</v>
       </c>
       <c r="D10">
-        <v>0.08797733813631226</v>
+        <v>0.0901611916781917</v>
       </c>
       <c r="E10">
-        <v>0.4952086748668805</v>
+        <v>0.1815995221151852</v>
       </c>
       <c r="F10">
-        <v>3.554666887735067</v>
+        <v>2.333468205380058</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.289205216341884</v>
+        <v>1.658843116397676</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.499076777162145</v>
+        <v>0.5246972720039764</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9548164608235297</v>
+        <v>0.3440906120354725</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.164594589391953</v>
+        <v>0.401035444265716</v>
       </c>
       <c r="C11">
-        <v>0.4615099230924784</v>
+        <v>0.154302792648167</v>
       </c>
       <c r="D11">
-        <v>0.08899449279046223</v>
+        <v>0.09081677006498978</v>
       </c>
       <c r="E11">
-        <v>0.5351955368936672</v>
+        <v>0.1912696009673951</v>
       </c>
       <c r="F11">
-        <v>3.774567681676842</v>
+        <v>2.389442485063654</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.416634411738613</v>
+        <v>1.692142178706533</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.6196456186033</v>
+        <v>0.5528469701608287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.032194323579049</v>
+        <v>0.3624734781092585</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.197596070230986</v>
+        <v>0.4085745302641612</v>
       </c>
       <c r="C12">
-        <v>0.4747966320328487</v>
+        <v>0.1574790098159156</v>
       </c>
       <c r="D12">
-        <v>0.08938422006702496</v>
+        <v>0.09106317665649044</v>
       </c>
       <c r="E12">
-        <v>0.550561637891505</v>
+        <v>0.1949448676130174</v>
       </c>
       <c r="F12">
-        <v>3.858975015710257</v>
+        <v>2.410747017387365</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.465562330749208</v>
+        <v>1.704813066985452</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.66582711284633</v>
+        <v>0.5635551530297391</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.06188349161441</v>
+        <v>0.3694631709900307</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.190472082530306</v>
+        <v>0.4069491363544842</v>
       </c>
       <c r="C13">
-        <v>0.4719270336018155</v>
+        <v>0.1567944683265807</v>
       </c>
       <c r="D13">
-        <v>0.08930006605892515</v>
+        <v>0.09101019022643442</v>
       </c>
       <c r="E13">
-        <v>0.5472417324717327</v>
+        <v>0.1941527309334461</v>
       </c>
       <c r="F13">
-        <v>3.840743294937795</v>
+        <v>2.406153871573139</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.45499336888264</v>
+        <v>1.702081428713868</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.655856407691999</v>
+        <v>0.5612467896601174</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.055471146609932</v>
+        <v>0.3679565401984561</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.167302277671553</v>
+        <v>0.4016549161152057</v>
       </c>
       <c r="C14">
-        <v>0.4625994345579443</v>
+        <v>0.1545638831150029</v>
       </c>
       <c r="D14">
-        <v>0.08902645864697689</v>
+        <v>0.09083707891667814</v>
       </c>
       <c r="E14">
-        <v>0.5364550195603073</v>
+        <v>0.1915716964803735</v>
       </c>
       <c r="F14">
-        <v>3.78148823997617</v>
+        <v>2.39119304523615</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.420645705968056</v>
+        <v>1.69318338855436</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.623433996682422</v>
+        <v>0.5537269640737748</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.03462873811462</v>
+        <v>0.3630479503521116</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.153157512962849</v>
+        <v>0.3984170763592942</v>
       </c>
       <c r="C15">
-        <v>0.4569091504758376</v>
+        <v>0.1531990056478207</v>
       </c>
       <c r="D15">
-        <v>0.08885948999344606</v>
+        <v>0.09073080366626129</v>
       </c>
       <c r="E15">
-        <v>0.5298780793403139</v>
+        <v>0.1899924959593946</v>
       </c>
       <c r="F15">
-        <v>3.745345463321854</v>
+        <v>2.382043241879217</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.399697241268811</v>
+        <v>1.687741080586846</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.603645165910933</v>
+        <v>0.5491271840844547</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.021914515034055</v>
+        <v>0.3600450234657231</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.07278420129137</v>
+        <v>0.3799391336105487</v>
       </c>
       <c r="C16">
-        <v>0.4246345039372272</v>
+        <v>0.1453990597681809</v>
       </c>
       <c r="D16">
-        <v>0.08791144633268289</v>
+        <v>0.0901180879739556</v>
       </c>
       <c r="E16">
-        <v>0.4926248557178781</v>
+        <v>0.1809694185856472</v>
       </c>
       <c r="F16">
-        <v>3.540446208220544</v>
+        <v>2.329825248187376</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.280966598365296</v>
+        <v>1.656675477386585</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.491266239477852</v>
+        <v>0.5228643851459651</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9498105921419366</v>
+        <v>0.3428932101401116</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.024044903210296</v>
+        <v>0.3686718564832461</v>
       </c>
       <c r="C17">
-        <v>0.4051117478219624</v>
+        <v>0.1406331649763786</v>
       </c>
       <c r="D17">
-        <v>0.08733688931135219</v>
+        <v>0.0897388842294049</v>
       </c>
       <c r="E17">
-        <v>0.4701329256978966</v>
+        <v>0.175457583791264</v>
       </c>
       <c r="F17">
-        <v>3.416604047871544</v>
+        <v>2.29798290400521</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.20923089731761</v>
+        <v>1.637726077835751</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.423172788115693</v>
+        <v>0.5068389054073634</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9062038027631303</v>
+        <v>0.3324213697193628</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9962031695948781</v>
+        <v>0.3622162558480682</v>
       </c>
       <c r="C18">
-        <v>0.3939763587640925</v>
+        <v>0.1378989083182489</v>
       </c>
       <c r="D18">
-        <v>0.0870087022695003</v>
+        <v>0.08951954523982408</v>
       </c>
       <c r="E18">
-        <v>0.4573185727633131</v>
+        <v>0.1722958598636097</v>
       </c>
       <c r="F18">
-        <v>3.346008514461516</v>
+        <v>2.279738130220437</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.168347561147797</v>
+        <v>1.626866471111555</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.384293887195014</v>
+        <v>0.4976528933653981</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8813344192489225</v>
+        <v>0.3264165520435043</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.98680787514337</v>
+        <v>0.3600347937289996</v>
       </c>
       <c r="C19">
-        <v>0.3902214460077573</v>
+        <v>0.136974325116995</v>
       </c>
       <c r="D19">
-        <v>0.08689794845632548</v>
+        <v>0.08944506844722611</v>
       </c>
       <c r="E19">
-        <v>0.4529999246771226</v>
+        <v>0.171226810441226</v>
       </c>
       <c r="F19">
-        <v>3.322210885436732</v>
+        <v>2.273572770005018</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.154567419173546</v>
+        <v>1.623196372285861</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.371177144460518</v>
+        <v>0.4945480501413897</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8729488501241889</v>
+        <v>0.3243865536811299</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029213069523735</v>
+        <v>0.3698686842028565</v>
       </c>
       <c r="C20">
-        <v>0.4071801163129862</v>
+        <v>0.1411397807902688</v>
       </c>
       <c r="D20">
-        <v>0.08739780900997118</v>
+        <v>0.08977937829623528</v>
       </c>
       <c r="E20">
-        <v>0.4725143318889664</v>
+        <v>0.1760434419233405</v>
       </c>
       <c r="F20">
-        <v>3.429720484976968</v>
+        <v>2.301365312926436</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.216827646461141</v>
+        <v>1.639739171565324</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.430391244548844</v>
+        <v>0.5085415899376926</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9108234728392546</v>
+        <v>0.3335342167026596</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.174097827486179</v>
+        <v>0.4032089097063078</v>
       </c>
       <c r="C21">
-        <v>0.4653343035296302</v>
+        <v>0.1552187636831093</v>
       </c>
       <c r="D21">
-        <v>0.0891066918698229</v>
+        <v>0.09088797577651775</v>
       </c>
       <c r="E21">
-        <v>0.5396169720314745</v>
+        <v>0.1923294419643824</v>
       </c>
       <c r="F21">
-        <v>3.798860779316271</v>
+        <v>2.395584454954445</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.430715420868083</v>
+        <v>1.695795290471267</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.632942328933893</v>
+        <v>0.5559343990687751</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.040739634260461</v>
+        <v>0.3644889447789268</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.270864663681465</v>
+        <v>0.4252232854566671</v>
       </c>
       <c r="C22">
-        <v>0.5043547897987253</v>
+        <v>0.1644835867646179</v>
       </c>
       <c r="D22">
-        <v>0.09025062907547721</v>
+        <v>0.09160175861749309</v>
       </c>
       <c r="E22">
-        <v>0.5847965857255844</v>
+        <v>0.2030516544856411</v>
       </c>
       <c r="F22">
-        <v>4.046817931600657</v>
+        <v>2.457793805869954</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.574476407040905</v>
+        <v>1.732788585509951</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.768423287301829</v>
+        <v>0.5871912726128983</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.127940464226548</v>
+        <v>0.3848860016508908</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.219009245095634</v>
+        <v>0.4134531660329515</v>
       </c>
       <c r="C23">
-        <v>0.4834267033710944</v>
+        <v>0.1595329066418287</v>
       </c>
       <c r="D23">
-        <v>0.08963725605392625</v>
+        <v>0.09122177261755127</v>
       </c>
       <c r="E23">
-        <v>0.5605499656090132</v>
+        <v>0.1973217228262882</v>
       </c>
       <c r="F23">
-        <v>3.913810859872683</v>
+        <v>2.424533341383324</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.497353000679368</v>
+        <v>1.713011630923461</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.695802080549925</v>
+        <v>0.5704828484825271</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.08116879876971</v>
+        <v>0.3739843250613859</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.026875987464933</v>
+        <v>0.3693275295493379</v>
       </c>
       <c r="C24">
-        <v>0.4062447331561998</v>
+        <v>0.1409107219824648</v>
       </c>
       <c r="D24">
-        <v>0.08737026064042652</v>
+        <v>0.08976107507205455</v>
       </c>
       <c r="E24">
-        <v>0.4714373375756722</v>
+        <v>0.1757785533652694</v>
       </c>
       <c r="F24">
-        <v>3.423788676746057</v>
+        <v>2.299835933386021</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.213392046137173</v>
+        <v>1.638828943990632</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.42712694856246</v>
+        <v>0.5077717214203403</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9087342990185689</v>
+        <v>0.3330310500839531</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8267993327928309</v>
+        <v>0.3226870816312726</v>
       </c>
       <c r="C25">
-        <v>0.3264904895363543</v>
+        <v>0.1210888805478021</v>
       </c>
       <c r="D25">
-        <v>0.08500931460825711</v>
+        <v>0.0881382795288026</v>
       </c>
       <c r="E25">
-        <v>0.3798934350506613</v>
+        <v>0.1528657194833443</v>
       </c>
       <c r="F25">
-        <v>2.919037925736063</v>
+        <v>2.168004768815905</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.921238125961267</v>
+        <v>1.56032120531124</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.148033507380092</v>
+        <v>0.4413268219246334</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7306673738886218</v>
+        <v>0.2895541743523253</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2891508418386479</v>
+        <v>0.6839470991772032</v>
       </c>
       <c r="C2">
-        <v>0.1067110064959991</v>
+        <v>0.2699530566954422</v>
       </c>
       <c r="D2">
-        <v>0.08690141491899794</v>
+        <v>0.08331301686315484</v>
       </c>
       <c r="E2">
-        <v>0.136257802795015</v>
+        <v>0.3153640761499616</v>
       </c>
       <c r="F2">
-        <v>2.073173598615554</v>
+        <v>2.563027688786832</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.50377406827981</v>
+        <v>1.715441576359638</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3934059789598336</v>
+        <v>0.949221026627697</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2581166958739658</v>
+        <v>0.6045291850897172</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2669171553449701</v>
+        <v>0.5891893657843923</v>
       </c>
       <c r="C3">
-        <v>0.09709692343326992</v>
+        <v>0.232649519613588</v>
       </c>
       <c r="D3">
-        <v>0.0860362689062093</v>
+        <v>0.08217674542888886</v>
       </c>
       <c r="E3">
-        <v>0.1251582388022214</v>
+        <v>0.2729741838458182</v>
       </c>
       <c r="F3">
-        <v>2.010269201892342</v>
+        <v>2.329424382863721</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.466216486311225</v>
+        <v>1.580555693805849</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3615412303505536</v>
+        <v>0.8175695391651061</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2371571902339298</v>
+        <v>0.5213586449303875</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2535071141164167</v>
+        <v>0.5318087596488965</v>
       </c>
       <c r="C4">
-        <v>0.09125632574736642</v>
+        <v>0.2101426817511935</v>
       </c>
       <c r="D4">
-        <v>0.08549156246981227</v>
+        <v>0.08148190537987077</v>
       </c>
       <c r="E4">
-        <v>0.1184174020750959</v>
+        <v>0.2474784822561134</v>
       </c>
       <c r="F4">
-        <v>1.972309074682542</v>
+        <v>2.189163753875263</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.443527407694191</v>
+        <v>1.499637656250869</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3422739594771258</v>
+        <v>0.7379420738890872</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2244549096416435</v>
+        <v>0.4712051907194379</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2481029561336356</v>
+        <v>0.5085985043029382</v>
       </c>
       <c r="C5">
-        <v>0.08889176286467659</v>
+        <v>0.2010572669443746</v>
       </c>
       <c r="D5">
-        <v>0.08526616324944669</v>
+        <v>0.0811989600387264</v>
       </c>
       <c r="E5">
-        <v>0.1156888395406028</v>
+        <v>0.2372049937698222</v>
       </c>
       <c r="F5">
-        <v>1.957005840836345</v>
+        <v>2.132721718595889</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.434374161633642</v>
+        <v>1.467092682598192</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3344968874323797</v>
+        <v>0.7057543370458745</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2193201731428687</v>
+        <v>0.4509662712168137</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2472092509668187</v>
+        <v>0.5047541012368129</v>
       </c>
       <c r="C6">
-        <v>0.08850006149637579</v>
+        <v>0.1995534733840145</v>
       </c>
       <c r="D6">
-        <v>0.08522852797957725</v>
+        <v>0.08115197569524568</v>
       </c>
       <c r="E6">
-        <v>0.1152368650859543</v>
+        <v>0.2355056224559959</v>
       </c>
       <c r="F6">
-        <v>1.954474737007047</v>
+        <v>2.123390467838917</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.432859853972829</v>
+        <v>1.461713218899575</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.33320999877661</v>
+        <v>0.7004241796100388</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2184700507953892</v>
+        <v>0.4476167825733341</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2534339868673214</v>
+        <v>0.531495074563793</v>
       </c>
       <c r="C7">
-        <v>0.09122437379566861</v>
+        <v>0.2100198205424704</v>
       </c>
       <c r="D7">
-        <v>0.08548853657454458</v>
+        <v>0.08147808927839506</v>
       </c>
       <c r="E7">
-        <v>0.1183805297003673</v>
+        <v>0.2473394819742794</v>
       </c>
       <c r="F7">
-        <v>1.972102019826565</v>
+        <v>2.18839976520124</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.443403589210035</v>
+        <v>1.499197064822894</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3421687740369919</v>
+        <v>0.7375069753118169</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2243854931377101</v>
+        <v>0.4709314745705484</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2814344113429001</v>
+        <v>0.6510904250092437</v>
       </c>
       <c r="C8">
-        <v>0.1033829862603568</v>
+        <v>0.2569996552439591</v>
       </c>
       <c r="D8">
-        <v>0.08660589618234837</v>
+        <v>0.08292032484153822</v>
       </c>
       <c r="E8">
-        <v>0.1324150529917816</v>
+        <v>0.3006266381055056</v>
       </c>
       <c r="F8">
-        <v>2.051345845206285</v>
+        <v>2.481771089017954</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.490746713266972</v>
+        <v>1.668507641005505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3823569544607608</v>
+        <v>0.9035504357545392</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2508549414455103</v>
+        <v>0.5756430774860775</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3382718547082391</v>
+        <v>0.8933968796149827</v>
       </c>
       <c r="C9">
-        <v>0.1277314873181297</v>
+        <v>0.3529656154820771</v>
       </c>
       <c r="D9">
-        <v>0.0886913522468511</v>
+        <v>0.08579619722083009</v>
       </c>
       <c r="E9">
-        <v>0.160542042724714</v>
+        <v>0.4102183413651019</v>
       </c>
       <c r="F9">
-        <v>2.212060838129958</v>
+        <v>3.086335014154116</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.586568621275887</v>
+        <v>2.018027161360024</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4635513476988251</v>
+        <v>1.240852066034705</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3041085383462558</v>
+        <v>0.7897632958323371</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3812282067261208</v>
+        <v>1.078372866056981</v>
       </c>
       <c r="C10">
-        <v>0.1459438294197923</v>
+        <v>0.4268754423398207</v>
       </c>
       <c r="D10">
-        <v>0.0901611916781917</v>
+        <v>0.08797733813632647</v>
       </c>
       <c r="E10">
-        <v>0.1815995221151852</v>
+        <v>0.4952086748669515</v>
       </c>
       <c r="F10">
-        <v>2.333468205380058</v>
+        <v>3.554666887735067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.658843116397676</v>
+        <v>2.289205216341898</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5246972720039764</v>
+        <v>1.499076777162173</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3440906120354725</v>
+        <v>0.9548164608235368</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.401035444265716</v>
+        <v>1.164594589391839</v>
       </c>
       <c r="C11">
-        <v>0.154302792648167</v>
+        <v>0.4615099230919952</v>
       </c>
       <c r="D11">
-        <v>0.09081677006498978</v>
+        <v>0.08899449279071092</v>
       </c>
       <c r="E11">
-        <v>0.1912696009673951</v>
+        <v>0.5351955368935961</v>
       </c>
       <c r="F11">
-        <v>2.389442485063654</v>
+        <v>3.774567681676842</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.692142178706533</v>
+        <v>2.416634411738599</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5528469701608287</v>
+        <v>1.619645618603329</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3624734781092585</v>
+        <v>1.032194323579056</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4085745302641612</v>
+        <v>1.197596070231128</v>
       </c>
       <c r="C12">
-        <v>0.1574790098159156</v>
+        <v>0.4747966320328771</v>
       </c>
       <c r="D12">
-        <v>0.09106317665649044</v>
+        <v>0.08938422006726654</v>
       </c>
       <c r="E12">
-        <v>0.1949448676130174</v>
+        <v>0.5505616378914695</v>
       </c>
       <c r="F12">
-        <v>2.410747017387365</v>
+        <v>3.858975015710257</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.704813066985452</v>
+        <v>2.465562330749208</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5635551530297391</v>
+        <v>1.665827112846216</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3694631709900307</v>
+        <v>1.06188349161441</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4069491363544842</v>
+        <v>1.190472082530221</v>
       </c>
       <c r="C13">
-        <v>0.1567944683265807</v>
+        <v>0.4719270336021282</v>
       </c>
       <c r="D13">
-        <v>0.09101019022643442</v>
+        <v>0.08930006605902463</v>
       </c>
       <c r="E13">
-        <v>0.1941527309334461</v>
+        <v>0.5472417324717114</v>
       </c>
       <c r="F13">
-        <v>2.406153871573139</v>
+        <v>3.840743294937795</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.702081428713868</v>
+        <v>2.454993368882654</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5612467896601174</v>
+        <v>1.655856407691914</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3679565401984561</v>
+        <v>1.055471146609911</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4016549161152057</v>
+        <v>1.167302277671695</v>
       </c>
       <c r="C14">
-        <v>0.1545638831150029</v>
+        <v>0.4625994345578874</v>
       </c>
       <c r="D14">
-        <v>0.09083707891667814</v>
+        <v>0.08902645864682057</v>
       </c>
       <c r="E14">
-        <v>0.1915716964803735</v>
+        <v>0.5364550195603499</v>
       </c>
       <c r="F14">
-        <v>2.39119304523615</v>
+        <v>3.781488239976198</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.69318338855436</v>
+        <v>2.420645705968084</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5537269640737748</v>
+        <v>1.623433996682536</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3630479503521116</v>
+        <v>1.034628738114598</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3984170763592942</v>
+        <v>1.153157512962963</v>
       </c>
       <c r="C15">
-        <v>0.1531990056478207</v>
+        <v>0.4569091504756102</v>
       </c>
       <c r="D15">
-        <v>0.09073080366626129</v>
+        <v>0.08885948999356685</v>
       </c>
       <c r="E15">
-        <v>0.1899924959593946</v>
+        <v>0.5298780793402997</v>
       </c>
       <c r="F15">
-        <v>2.382043241879217</v>
+        <v>3.745345463321883</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.687741080586846</v>
+        <v>2.399697241268825</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5491271840844547</v>
+        <v>1.603645165910962</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3600450234657231</v>
+        <v>1.021914515034055</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3799391336105487</v>
+        <v>1.072784201291199</v>
       </c>
       <c r="C16">
-        <v>0.1453990597681809</v>
+        <v>0.4246345039377388</v>
       </c>
       <c r="D16">
-        <v>0.0901180879739556</v>
+        <v>0.08791144633265446</v>
       </c>
       <c r="E16">
-        <v>0.1809694185856472</v>
+        <v>0.4926248557178496</v>
       </c>
       <c r="F16">
-        <v>2.329825248187376</v>
+        <v>3.540446208220601</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.656675477386585</v>
+        <v>2.280966598365325</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5228643851459651</v>
+        <v>1.491266239477767</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3428932101401116</v>
+        <v>0.9498105921419651</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3686718564832461</v>
+        <v>1.024044903210154</v>
       </c>
       <c r="C17">
-        <v>0.1406331649763786</v>
+        <v>0.4051117478217634</v>
       </c>
       <c r="D17">
-        <v>0.0897388842294049</v>
+        <v>0.08733688931086903</v>
       </c>
       <c r="E17">
-        <v>0.175457583791264</v>
+        <v>0.470132925697925</v>
       </c>
       <c r="F17">
-        <v>2.29798290400521</v>
+        <v>3.416604047871601</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.637726077835751</v>
+        <v>2.20923089731761</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5068389054073634</v>
+        <v>1.423172788115664</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3324213697193628</v>
+        <v>0.9062038027631445</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3622162558480682</v>
+        <v>0.9962031695946507</v>
       </c>
       <c r="C18">
-        <v>0.1378989083182489</v>
+        <v>0.3939763587640641</v>
       </c>
       <c r="D18">
-        <v>0.08951954523982408</v>
+        <v>0.08700870226912372</v>
       </c>
       <c r="E18">
-        <v>0.1722958598636097</v>
+        <v>0.4573185727632776</v>
       </c>
       <c r="F18">
-        <v>2.279738130220437</v>
+        <v>3.346008514461488</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.626866471111555</v>
+        <v>2.168347561147797</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4976528933653981</v>
+        <v>1.384293887195014</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3264165520435043</v>
+        <v>0.8813344192489083</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3600347937289996</v>
+        <v>0.9868078751433984</v>
       </c>
       <c r="C19">
-        <v>0.136974325116995</v>
+        <v>0.3902214460077573</v>
       </c>
       <c r="D19">
-        <v>0.08944506844722611</v>
+        <v>0.08689794845631837</v>
       </c>
       <c r="E19">
-        <v>0.171226810441226</v>
+        <v>0.4529999246771368</v>
       </c>
       <c r="F19">
-        <v>2.273572770005018</v>
+        <v>3.322210885436732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.623196372285861</v>
+        <v>2.154567419173532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4945480501413897</v>
+        <v>1.371177144460546</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3243865536811299</v>
+        <v>0.8729488501242031</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3698686842028565</v>
+        <v>1.029213069523763</v>
       </c>
       <c r="C20">
-        <v>0.1411397807902688</v>
+        <v>0.407180116312702</v>
       </c>
       <c r="D20">
-        <v>0.08977937829623528</v>
+        <v>0.08739780901033356</v>
       </c>
       <c r="E20">
-        <v>0.1760434419233405</v>
+        <v>0.4725143318889238</v>
       </c>
       <c r="F20">
-        <v>2.301365312926436</v>
+        <v>3.42972048497694</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.639739171565324</v>
+        <v>2.216827646461141</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5085415899376926</v>
+        <v>1.430391244548844</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3335342167026596</v>
+        <v>0.9108234728392404</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4032089097063078</v>
+        <v>1.17409782748615</v>
       </c>
       <c r="C21">
-        <v>0.1552187636831093</v>
+        <v>0.4653343035298292</v>
       </c>
       <c r="D21">
-        <v>0.09088797577651775</v>
+        <v>0.08910669186959552</v>
       </c>
       <c r="E21">
-        <v>0.1923294419643824</v>
+        <v>0.5396169720315029</v>
       </c>
       <c r="F21">
-        <v>2.395584454954445</v>
+        <v>3.798860779316243</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.695795290471267</v>
+        <v>2.430715420868083</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5559343990687751</v>
+        <v>1.632942328933865</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3644889447789268</v>
+        <v>1.040739634260476</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4252232854566671</v>
+        <v>1.270864663681579</v>
       </c>
       <c r="C22">
-        <v>0.1644835867646179</v>
+        <v>0.5043547897992084</v>
       </c>
       <c r="D22">
-        <v>0.09160175861749309</v>
+        <v>0.09025062907532799</v>
       </c>
       <c r="E22">
-        <v>0.2030516544856411</v>
+        <v>0.5847965857255772</v>
       </c>
       <c r="F22">
-        <v>2.457793805869954</v>
+        <v>4.046817931600657</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.732788585509951</v>
+        <v>2.574476407040891</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5871912726128983</v>
+        <v>1.768423287301715</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3848860016508908</v>
+        <v>1.12794046422654</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4134531660329515</v>
+        <v>1.219009245095634</v>
       </c>
       <c r="C23">
-        <v>0.1595329066418287</v>
+        <v>0.4834267033710944</v>
       </c>
       <c r="D23">
-        <v>0.09122177261755127</v>
+        <v>0.08963725605404704</v>
       </c>
       <c r="E23">
-        <v>0.1973217228262882</v>
+        <v>0.5605499656089918</v>
       </c>
       <c r="F23">
-        <v>2.424533341383324</v>
+        <v>3.913810859872711</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.713011630923461</v>
+        <v>2.497353000679382</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5704828484825271</v>
+        <v>1.695802080549953</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3739843250613859</v>
+        <v>1.08116879876971</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3693275295493379</v>
+        <v>1.026875987464962</v>
       </c>
       <c r="C24">
-        <v>0.1409107219824648</v>
+        <v>0.406244733156143</v>
       </c>
       <c r="D24">
-        <v>0.08976107507205455</v>
+        <v>0.08737026064062547</v>
       </c>
       <c r="E24">
-        <v>0.1757785533652694</v>
+        <v>0.4714373375756793</v>
       </c>
       <c r="F24">
-        <v>2.299835933386021</v>
+        <v>3.423788676746057</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.638828943990632</v>
+        <v>2.213392046137173</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5077717214203403</v>
+        <v>1.427126948562517</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3330310500839531</v>
+        <v>0.9087342990185547</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3226870816312726</v>
+        <v>0.8267993327928878</v>
       </c>
       <c r="C25">
-        <v>0.1210888805478021</v>
+        <v>0.3264904895363259</v>
       </c>
       <c r="D25">
-        <v>0.0881382795288026</v>
+        <v>0.08500931460813632</v>
       </c>
       <c r="E25">
-        <v>0.1528657194833443</v>
+        <v>0.3798934350506116</v>
       </c>
       <c r="F25">
-        <v>2.168004768815905</v>
+        <v>2.919037925736092</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.56032120531124</v>
+        <v>1.921238125961281</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4413268219246334</v>
+        <v>1.148033507380092</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2895541743523253</v>
+        <v>0.7306673738886147</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6839470991772032</v>
+        <v>4.045881670453525</v>
       </c>
       <c r="C2">
-        <v>0.2699530566954422</v>
+        <v>1.746893221273979</v>
       </c>
       <c r="D2">
-        <v>0.08331301686315484</v>
+        <v>0.03447832104157911</v>
       </c>
       <c r="E2">
-        <v>0.3153640761499616</v>
+        <v>1.374054430331682</v>
       </c>
       <c r="F2">
-        <v>2.563027688786832</v>
+        <v>2.118088286844966</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.01341393056909512</v>
       </c>
       <c r="I2">
-        <v>1.715441576359638</v>
+        <v>0.009569810507859877</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.949221026627697</v>
+        <v>0.9375202405791896</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6045291850897172</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7248166702226086</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5891893657843923</v>
+        <v>3.509831171684141</v>
       </c>
       <c r="C3">
-        <v>0.232649519613588</v>
+        <v>1.510584316863458</v>
       </c>
       <c r="D3">
-        <v>0.08217674542888886</v>
+        <v>0.03312987223555197</v>
       </c>
       <c r="E3">
-        <v>0.2729741838458182</v>
+        <v>1.187960168718718</v>
       </c>
       <c r="F3">
-        <v>2.329424382863721</v>
+        <v>1.88126395054563</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.008793097623944091</v>
+      </c>
+      <c r="I3">
+        <v>0.005509333536886984</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>1.580555693805849</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0.8175695391651061</v>
+        <v>0.8551311646107038</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5213586449303875</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.7534232310097337</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5318087596488965</v>
+        <v>3.181454501983922</v>
       </c>
       <c r="C4">
-        <v>0.2101426817511935</v>
+        <v>1.36712227192038</v>
       </c>
       <c r="D4">
-        <v>0.08148190537987077</v>
+        <v>0.03226583317880838</v>
       </c>
       <c r="E4">
-        <v>0.2474784822561134</v>
+        <v>1.074817777372274</v>
       </c>
       <c r="F4">
-        <v>2.189163753875263</v>
+        <v>1.737487524018846</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.006376461513995291</v>
+      </c>
+      <c r="I4">
+        <v>0.003579317084096978</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>1.499637656250869</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.7379420738890872</v>
+        <v>0.8050396948481122</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4712051907194379</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.771347794675691</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5085985043029382</v>
+        <v>3.045260440129937</v>
       </c>
       <c r="C5">
-        <v>0.2010572669443746</v>
+        <v>1.309577404106676</v>
       </c>
       <c r="D5">
-        <v>0.0811989600387264</v>
+        <v>0.03183600662282871</v>
       </c>
       <c r="E5">
-        <v>0.2372049937698222</v>
+        <v>1.028909467347319</v>
       </c>
       <c r="F5">
-        <v>2.132721718595889</v>
+        <v>1.677228194083241</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.005484770577719789</v>
+      </c>
+      <c r="I5">
+        <v>0.002973920547097997</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>1.467092682598192</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.7057543370458745</v>
+        <v>0.7833866756380701</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4509662712168137</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7781833882750355</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5047541012368129</v>
+        <v>3.019600986513296</v>
       </c>
       <c r="C6">
-        <v>0.1995534733840145</v>
+        <v>1.300737200100002</v>
       </c>
       <c r="D6">
-        <v>0.08115197569524568</v>
+        <v>0.03168066431137007</v>
       </c>
       <c r="E6">
-        <v>0.2355056224559959</v>
+        <v>1.02125522326557</v>
       </c>
       <c r="F6">
-        <v>2.123390467838917</v>
+        <v>1.664778824571087</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.005338428870464096</v>
+      </c>
+      <c r="I6">
+        <v>0.002952354599621287</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>1.461713218899575</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.7004241796100388</v>
+        <v>0.7781583177453939</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4476167825733341</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.7786527236362168</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.531495074563793</v>
+        <v>3.171247093409818</v>
       </c>
       <c r="C7">
-        <v>0.2100198205424704</v>
+        <v>1.368248750981536</v>
       </c>
       <c r="D7">
-        <v>0.08147808927839506</v>
+        <v>0.03203147033432785</v>
       </c>
       <c r="E7">
-        <v>0.2473394819742794</v>
+        <v>1.074073685134437</v>
       </c>
       <c r="F7">
-        <v>2.18839976520124</v>
+        <v>1.72992679523405</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.006352588328786823</v>
+      </c>
+      <c r="I7">
+        <v>0.003747239572472694</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>1.499197064822894</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.7375069753118169</v>
+        <v>0.8002596759890181</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4709314745705484</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.7696182098883462</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6510904250092437</v>
+        <v>3.849586608170455</v>
       </c>
       <c r="C8">
-        <v>0.2569996552439591</v>
+        <v>1.667572084210803</v>
       </c>
       <c r="D8">
-        <v>0.08292032484153822</v>
+        <v>0.03371585510940633</v>
       </c>
       <c r="E8">
-        <v>0.3006266381055056</v>
+        <v>1.309444214831046</v>
       </c>
       <c r="F8">
-        <v>2.481771089017954</v>
+        <v>2.027030261927194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.01170745332817807</v>
+      </c>
+      <c r="I8">
+        <v>0.008233192770913611</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>1.668507641005505</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0.9035504357545392</v>
+        <v>0.903004311372662</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5756430774860775</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7322429160647346</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8933968796149827</v>
+        <v>5.205016178616859</v>
       </c>
       <c r="C9">
-        <v>0.3529656154820771</v>
+        <v>2.267099524646824</v>
       </c>
       <c r="D9">
-        <v>0.08579619722083009</v>
+        <v>0.03715895551423642</v>
       </c>
       <c r="E9">
-        <v>0.4102183413651019</v>
+        <v>1.782483442517233</v>
       </c>
       <c r="F9">
-        <v>3.086335014154116</v>
+        <v>2.638185931146154</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.02603758246617272</v>
+      </c>
+      <c r="I9">
+        <v>0.02191144811342749</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>2.018027161360024</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.240852066034705</v>
+        <v>1.11777413295232</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7897632958323371</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6653757406528591</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.078372866056981</v>
+        <v>6.165840337544864</v>
       </c>
       <c r="C10">
-        <v>0.4268754423398207</v>
+        <v>2.694029576693083</v>
       </c>
       <c r="D10">
-        <v>0.08797733813632647</v>
+        <v>0.03812732162943178</v>
       </c>
       <c r="E10">
-        <v>0.4952086748669515</v>
+        <v>2.034743313960291</v>
       </c>
       <c r="F10">
-        <v>3.554666887735067</v>
+        <v>3.055402548628905</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.03847376331414543</v>
+      </c>
+      <c r="I10">
+        <v>0.03553998033032446</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>2.289205216341898</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.499076777162173</v>
+        <v>1.257300454187941</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9548164608235368</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.611327650945519</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.164594589391839</v>
+        <v>6.220393681027019</v>
       </c>
       <c r="C11">
-        <v>0.4615099230919952</v>
+        <v>2.64587927867484</v>
       </c>
       <c r="D11">
-        <v>0.08899449279071092</v>
+        <v>0.02870276634135394</v>
       </c>
       <c r="E11">
-        <v>0.5351955368935961</v>
+        <v>1.334273256016687</v>
       </c>
       <c r="F11">
-        <v>3.774567681676842</v>
+        <v>2.866651792593501</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.05337384047237492</v>
+      </c>
+      <c r="I11">
+        <v>0.03805700596535377</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>2.416634411738599</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1.619645618603329</v>
+        <v>1.136737936560124</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.032194323579056</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5387571665924149</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.197596070231128</v>
+        <v>6.076330278103001</v>
       </c>
       <c r="C12">
-        <v>0.4747966320328771</v>
+        <v>2.514574347584016</v>
       </c>
       <c r="D12">
-        <v>0.08938422006726654</v>
+        <v>0.02318407046884374</v>
       </c>
       <c r="E12">
-        <v>0.5505616378914695</v>
+        <v>0.8249563741066055</v>
       </c>
       <c r="F12">
-        <v>3.858975015710257</v>
+        <v>2.636458126659022</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.08811731564271952</v>
+      </c>
+      <c r="I12">
+        <v>0.03710277162524989</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>2.465562330749208</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>1.665827112846216</v>
+        <v>1.017978420389809</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.06188349161441</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.5053465187152302</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.190472082530221</v>
+        <v>5.759833394466682</v>
       </c>
       <c r="C13">
-        <v>0.4719270336021282</v>
+        <v>2.316579924021369</v>
       </c>
       <c r="D13">
-        <v>0.08930006605902463</v>
+        <v>0.01996920230708366</v>
       </c>
       <c r="E13">
-        <v>0.5472417324717114</v>
+        <v>0.4348953832155331</v>
       </c>
       <c r="F13">
-        <v>3.840743294937795</v>
+        <v>2.352191186663859</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1394748687758494</v>
+      </c>
+      <c r="I13">
+        <v>0.03371715760286165</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>2.454993368882654</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>1.655856407691914</v>
+        <v>0.887370276988996</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.055471146609911</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.4963543489320459</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.167302277671695</v>
+        <v>5.460843386015199</v>
       </c>
       <c r="C14">
-        <v>0.4625994345578874</v>
+        <v>2.150845683246871</v>
       </c>
       <c r="D14">
-        <v>0.08902645864682057</v>
+        <v>0.01903119348593263</v>
       </c>
       <c r="E14">
-        <v>0.5364550195603499</v>
+        <v>0.2353001059496904</v>
       </c>
       <c r="F14">
-        <v>3.781488239976198</v>
+        <v>2.130483887861999</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1857559791944965</v>
+      </c>
+      <c r="I14">
+        <v>0.03051115030562812</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>2.420645705968084</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1.623433996682536</v>
+        <v>0.7912568671543454</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.034628738114598</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5024204553637599</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.153157512962963</v>
+        <v>5.34892385882182</v>
       </c>
       <c r="C15">
-        <v>0.4569091504756102</v>
+        <v>2.097085144495225</v>
       </c>
       <c r="D15">
-        <v>0.08885948999356685</v>
+        <v>0.01899620468002494</v>
       </c>
       <c r="E15">
-        <v>0.5298780793402997</v>
+        <v>0.1953657703986522</v>
       </c>
       <c r="F15">
-        <v>3.745345463321883</v>
+        <v>2.062510315506898</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1972138021776146</v>
+      </c>
+      <c r="I15">
+        <v>0.02930835544950394</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>2.399697241268825</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.603645165910962</v>
+        <v>0.7635237797060412</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.021914515034055</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5072493321151494</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.072784201291199</v>
+        <v>5.00617726272236</v>
       </c>
       <c r="C16">
-        <v>0.4246345039377388</v>
+        <v>1.962235012452993</v>
       </c>
       <c r="D16">
-        <v>0.08791144633265446</v>
+        <v>0.0193074275429348</v>
       </c>
       <c r="E16">
-        <v>0.4926248557178496</v>
+        <v>0.186387784689952</v>
       </c>
       <c r="F16">
-        <v>3.540446208220601</v>
+        <v>1.945872586413572</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1807115740124203</v>
+      </c>
+      <c r="I16">
+        <v>0.02451111682070284</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>2.280966598365325</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.491266239477767</v>
+        <v>0.7315395478562294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9498105921419651</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.5297302349213595</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.024044903210154</v>
+        <v>4.900011125456047</v>
       </c>
       <c r="C17">
-        <v>0.4051117478217634</v>
+        <v>1.945457621544733</v>
       </c>
       <c r="D17">
-        <v>0.08733688931086903</v>
+        <v>0.01981223529611886</v>
       </c>
       <c r="E17">
-        <v>0.470132925697925</v>
+        <v>0.2706855281385643</v>
       </c>
       <c r="F17">
-        <v>3.416604047871601</v>
+        <v>1.971814130893435</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1415421336313756</v>
+      </c>
+      <c r="I17">
+        <v>0.02249630444508632</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>2.20923089731761</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.423172788115664</v>
+        <v>0.7567208882629402</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9062038027631445</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.5429554962568028</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9962031695946507</v>
+        <v>4.992124303617061</v>
       </c>
       <c r="C18">
-        <v>0.3939763587640641</v>
+        <v>2.028386254711904</v>
       </c>
       <c r="D18">
-        <v>0.08700870226912372</v>
+        <v>0.02167034613126617</v>
       </c>
       <c r="E18">
-        <v>0.4573185727632776</v>
+        <v>0.5088047397623967</v>
       </c>
       <c r="F18">
-        <v>3.346008514461488</v>
+        <v>2.131948117559432</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.08966690151708434</v>
+      </c>
+      <c r="I18">
+        <v>0.0223248837321286</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>2.168347561147797</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.384293887195014</v>
+        <v>0.8398978858851365</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8813344192489083</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.5563513694707467</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9868078751433984</v>
+        <v>5.225360663322135</v>
       </c>
       <c r="C19">
-        <v>0.3902214460077573</v>
+        <v>2.194001558883087</v>
       </c>
       <c r="D19">
-        <v>0.08689794845631837</v>
+        <v>0.02598655384880288</v>
       </c>
       <c r="E19">
-        <v>0.4529999246771368</v>
+        <v>0.9534527794924088</v>
       </c>
       <c r="F19">
-        <v>3.322210885436732</v>
+        <v>2.385969794585549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.04817680687045112</v>
+      </c>
+      <c r="I19">
+        <v>0.02424730190488145</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>2.154567419173532</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.371177144460546</v>
+        <v>0.962179465714442</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8729488501242031</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.5778024794533341</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029213069523763</v>
+        <v>5.883384397552675</v>
       </c>
       <c r="C20">
-        <v>0.407180116312702</v>
+        <v>2.585715098139303</v>
       </c>
       <c r="D20">
-        <v>0.08739780901033356</v>
+        <v>0.03711935503459074</v>
       </c>
       <c r="E20">
-        <v>0.4725143318889238</v>
+        <v>1.962968972223564</v>
       </c>
       <c r="F20">
-        <v>3.42972048497694</v>
+        <v>2.921262441141323</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.03485770150283685</v>
+      </c>
+      <c r="I20">
+        <v>0.03205321887721979</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>2.216827646461141</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.430391244548844</v>
+        <v>1.205114889537299</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9108234728392404</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6198813098176146</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.17409782748615</v>
+        <v>6.697723962023474</v>
       </c>
       <c r="C21">
-        <v>0.4653343035298292</v>
+        <v>2.962670748534833</v>
       </c>
       <c r="D21">
-        <v>0.08910669186959552</v>
+        <v>0.03996785860880081</v>
       </c>
       <c r="E21">
-        <v>0.5396169720315029</v>
+        <v>2.324053742074994</v>
       </c>
       <c r="F21">
-        <v>3.798860779316243</v>
+        <v>3.319211724039604</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.04727821911261909</v>
+      </c>
+      <c r="I21">
+        <v>0.04484329007219223</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>2.430715420868083</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1.632942328933865</v>
+        <v>1.349769938471411</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.040739634260476</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5908909087090919</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.270864663681579</v>
+        <v>7.22443573022872</v>
       </c>
       <c r="C22">
-        <v>0.5043547897992084</v>
+        <v>3.196209641994983</v>
       </c>
       <c r="D22">
-        <v>0.09025062907532799</v>
+        <v>0.04146575104840977</v>
       </c>
       <c r="E22">
-        <v>0.5847965857255772</v>
+        <v>2.509905517220119</v>
       </c>
       <c r="F22">
-        <v>4.046817931600657</v>
+        <v>3.571126823325187</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.05568546384942419</v>
+      </c>
+      <c r="I22">
+        <v>0.05388602166844514</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>2.574476407040891</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>1.768423287301715</v>
+        <v>1.441345918941465</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.12794046422654</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5714433207455016</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.219009245095634</v>
+        <v>6.953444222202791</v>
       </c>
       <c r="C23">
-        <v>0.4834267033710944</v>
+        <v>3.068847086170422</v>
       </c>
       <c r="D23">
-        <v>0.08963725605404704</v>
+        <v>0.04094440028461577</v>
       </c>
       <c r="E23">
-        <v>0.5605499656089918</v>
+        <v>2.410630275162148</v>
       </c>
       <c r="F23">
-        <v>3.913810859872711</v>
+        <v>3.444528701348048</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.05115430695221512</v>
+      </c>
+      <c r="I23">
+        <v>0.04880946429923494</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>2.497353000679382</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>1.695802080549953</v>
+        <v>1.397791339198236</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.08116879876971</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5837140933272522</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.026875987464962</v>
+        <v>5.919664414109775</v>
       </c>
       <c r="C24">
-        <v>0.406244733156143</v>
+        <v>2.598828350645135</v>
       </c>
       <c r="D24">
-        <v>0.08737026064062547</v>
+        <v>0.03850427129013312</v>
       </c>
       <c r="E24">
-        <v>0.4714373375756793</v>
+        <v>2.040739178133265</v>
       </c>
       <c r="F24">
-        <v>3.423788676746057</v>
+        <v>2.961558372887851</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.0355657932697131</v>
+      </c>
+      <c r="I24">
+        <v>0.03200342761785269</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>2.213392046137173</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.427126948562517</v>
+        <v>1.227623177829372</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9087342990185547</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6285923771801691</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8267993327928878</v>
+        <v>4.820984888619591</v>
       </c>
       <c r="C25">
-        <v>0.3264904895363259</v>
+        <v>2.106233091696993</v>
       </c>
       <c r="D25">
-        <v>0.08500931460813632</v>
+        <v>0.03583604953332653</v>
       </c>
       <c r="E25">
-        <v>0.3798934350506116</v>
+        <v>1.652675243628806</v>
       </c>
       <c r="F25">
-        <v>2.919037925736092</v>
+        <v>2.458124174685622</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.02164873162050629</v>
+      </c>
+      <c r="I25">
+        <v>0.01781494196955702</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>1.921238125961281</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.148033507380092</v>
+        <v>1.050669734300754</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7306673738886147</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.679939644609501</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.045881670453525</v>
+        <v>3.634705475450517</v>
       </c>
       <c r="C2">
-        <v>1.746893221273979</v>
+        <v>1.845435822446632</v>
       </c>
       <c r="D2">
-        <v>0.03447832104157911</v>
+        <v>0.02431521354185584</v>
       </c>
       <c r="E2">
-        <v>1.374054430331682</v>
+        <v>1.371217614075761</v>
       </c>
       <c r="F2">
-        <v>2.118088286844966</v>
+        <v>1.786388868379092</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01341393056909512</v>
+        <v>0.01309285699090657</v>
       </c>
       <c r="I2">
-        <v>0.009569810507859877</v>
+        <v>0.008995608951583911</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.9375202405791896</v>
+        <v>0.7198144813585614</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3413905029843463</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2180919589356165</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7248166702226086</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6499665257417817</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.509831171684141</v>
+        <v>3.167208223022953</v>
       </c>
       <c r="C3">
-        <v>1.510584316863458</v>
+        <v>1.593803390923142</v>
       </c>
       <c r="D3">
-        <v>0.03312987223555197</v>
+        <v>0.02408042401928689</v>
       </c>
       <c r="E3">
-        <v>1.187960168718718</v>
+        <v>1.187590882694963</v>
       </c>
       <c r="F3">
-        <v>1.88126395054563</v>
+        <v>1.599407335372987</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.008793097623944091</v>
+        <v>0.008755638206665028</v>
       </c>
       <c r="I3">
-        <v>0.005509333536886984</v>
+        <v>0.005562542618169353</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.8551311646107038</v>
+        <v>0.6677877107955581</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.332061494156136</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1878993888704628</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7534232310097337</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.6825519748902522</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.181454501983922</v>
+        <v>2.879832361439753</v>
       </c>
       <c r="C4">
-        <v>1.36712227192038</v>
+        <v>1.440975569421767</v>
       </c>
       <c r="D4">
-        <v>0.03226583317880838</v>
+        <v>0.02389754365611019</v>
       </c>
       <c r="E4">
-        <v>1.074817777372274</v>
+        <v>1.07574444463387</v>
       </c>
       <c r="F4">
-        <v>1.737487524018846</v>
+        <v>1.485552523558226</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006376461513995291</v>
+        <v>0.006462310108952929</v>
       </c>
       <c r="I4">
-        <v>0.003579317084096978</v>
+        <v>0.003876508590718863</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.8050396948481122</v>
+        <v>0.6359840787962057</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3259607512954688</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1704093760063081</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.771347794675691</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7030120440799417</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.045260440129937</v>
+        <v>2.760377598470939</v>
       </c>
       <c r="C5">
-        <v>1.309577404106676</v>
+        <v>1.379606679496987</v>
       </c>
       <c r="D5">
-        <v>0.03183600662282871</v>
+        <v>0.02377221638131033</v>
       </c>
       <c r="E5">
-        <v>1.028909467347319</v>
+        <v>1.030319567309846</v>
       </c>
       <c r="F5">
-        <v>1.677228194083241</v>
+        <v>1.437610946601538</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.005484770577719789</v>
+        <v>0.005609715300051832</v>
       </c>
       <c r="I5">
-        <v>0.002973920547097997</v>
+        <v>0.00335137673396968</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.7833866756380701</v>
+        <v>0.6219543311808309</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3229128370984569</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1631773241228736</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7781833882750355</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7111888102872657</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.019600986513296</v>
+        <v>2.737824422897177</v>
       </c>
       <c r="C6">
-        <v>1.300737200100002</v>
+        <v>1.370106598268421</v>
       </c>
       <c r="D6">
-        <v>0.03168066431137007</v>
+        <v>0.02370084562050856</v>
       </c>
       <c r="E6">
-        <v>1.02125522326557</v>
+        <v>1.022746903753372</v>
       </c>
       <c r="F6">
-        <v>1.664778824571087</v>
+        <v>1.427539107408251</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.005338428870464096</v>
+        <v>0.005469539226599207</v>
       </c>
       <c r="I6">
-        <v>0.002952354599621287</v>
+        <v>0.003358441195119077</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.7781583177453939</v>
+        <v>0.6182945195698011</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3218320119573974</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1615552407891414</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7786527236362168</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7122286096204018</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.171247093409818</v>
+        <v>2.870796707686054</v>
       </c>
       <c r="C7">
-        <v>1.368248750981536</v>
+        <v>1.441980298013789</v>
       </c>
       <c r="D7">
-        <v>0.03203147033432785</v>
+        <v>0.02376018195426255</v>
       </c>
       <c r="E7">
-        <v>1.074073685134437</v>
+        <v>1.07501891969504</v>
       </c>
       <c r="F7">
-        <v>1.72992679523405</v>
+        <v>1.479102957908353</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006352588328786823</v>
+        <v>0.006440073694887971</v>
       </c>
       <c r="I7">
-        <v>0.003747239572472694</v>
+        <v>0.004090790905523889</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.8002596759890181</v>
+        <v>0.6321592475353484</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3243889463520375</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1690962798742355</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7696182098883462</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7022618193379646</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.849586608170455</v>
+        <v>3.46360341946712</v>
       </c>
       <c r="C8">
-        <v>1.667572084210803</v>
+        <v>1.760732543517065</v>
       </c>
       <c r="D8">
-        <v>0.03371585510940633</v>
+        <v>0.02406700398563366</v>
       </c>
       <c r="E8">
-        <v>1.309444214831046</v>
+        <v>1.307528447541387</v>
       </c>
       <c r="F8">
-        <v>2.027030261927194</v>
+        <v>1.713975222943759</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01170745332817807</v>
+        <v>0.0114978546620263</v>
       </c>
       <c r="I8">
-        <v>0.008233192770913611</v>
+        <v>0.007967818863147791</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.903004311372662</v>
+        <v>0.6970280710700081</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3363193027966602</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2057530855882206</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7322429160647346</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.6600836661102063</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.205016178616859</v>
+        <v>4.639492657669791</v>
       </c>
       <c r="C9">
-        <v>2.267099524646824</v>
+        <v>2.398666516879757</v>
       </c>
       <c r="D9">
-        <v>0.03715895551423642</v>
+        <v>0.02459565987513201</v>
       </c>
       <c r="E9">
-        <v>1.782483442517233</v>
+        <v>1.772827562170519</v>
       </c>
       <c r="F9">
-        <v>2.638185931146154</v>
+        <v>2.195015235994674</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02603758246617272</v>
+        <v>0.02476953996282827</v>
       </c>
       <c r="I9">
-        <v>0.02191144811342749</v>
+        <v>0.01906990949991361</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.11777413295232</v>
+        <v>0.8326354303591401</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.359423029473291</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2888988098830083</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6653757406528591</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.5825994291364767</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.165840337544864</v>
+        <v>5.469540890970165</v>
       </c>
       <c r="C10">
-        <v>2.694029576693083</v>
+        <v>2.851490842640374</v>
       </c>
       <c r="D10">
-        <v>0.03812732162943178</v>
+        <v>0.02413806564491594</v>
       </c>
       <c r="E10">
-        <v>2.034743313960291</v>
+        <v>2.018237036403264</v>
       </c>
       <c r="F10">
-        <v>3.055402548628905</v>
+        <v>2.520659419566869</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03847376331414543</v>
+        <v>0.03611114243192137</v>
       </c>
       <c r="I10">
-        <v>0.03553998033032446</v>
+        <v>0.02989517933413044</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.257300454187941</v>
+        <v>0.9179187116818213</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3688145916125904</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3495594151654089</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.611327650945519</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5268407046013328</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.220393681027019</v>
+        <v>5.540788259332658</v>
       </c>
       <c r="C11">
-        <v>2.64587927867484</v>
+        <v>2.796639453182195</v>
       </c>
       <c r="D11">
-        <v>0.02870276634135394</v>
+        <v>0.02008676980624458</v>
       </c>
       <c r="E11">
-        <v>1.334273256016687</v>
+        <v>1.319954129973056</v>
       </c>
       <c r="F11">
-        <v>2.866651792593501</v>
+        <v>2.365316624627937</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.05337384047237492</v>
+        <v>0.05107996418479388</v>
       </c>
       <c r="I11">
-        <v>0.03805700596535377</v>
+        <v>0.03214393956138206</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.136737936560124</v>
+        <v>0.8258588231109485</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.326632281230971</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3241540328296608</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5387571665924149</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.4990463298687899</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.076330278103001</v>
+        <v>5.436790249900582</v>
       </c>
       <c r="C12">
-        <v>2.514574347584016</v>
+        <v>2.654553350889273</v>
       </c>
       <c r="D12">
-        <v>0.02318407046884374</v>
+        <v>0.01884499792534067</v>
       </c>
       <c r="E12">
-        <v>0.8249563741066055</v>
+        <v>0.8133630293358891</v>
       </c>
       <c r="F12">
-        <v>2.636458126659022</v>
+        <v>2.17956550906564</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.08811731564271952</v>
+        <v>0.08605133682633692</v>
       </c>
       <c r="I12">
-        <v>0.03710277162524989</v>
+        <v>0.03147263630507524</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.017978420389809</v>
+        <v>0.7396937300406066</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2931787285244951</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2929140287524703</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5053465187152302</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.4987980111982626</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.759833394466682</v>
+        <v>5.181574372151147</v>
       </c>
       <c r="C13">
-        <v>2.316579924021369</v>
+        <v>2.441949780933726</v>
       </c>
       <c r="D13">
-        <v>0.01996920230708366</v>
+        <v>0.01937917033818692</v>
       </c>
       <c r="E13">
-        <v>0.4348953832155331</v>
+        <v>0.4262571526699759</v>
       </c>
       <c r="F13">
-        <v>2.352191186663859</v>
+        <v>1.951626834359843</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1394748687758494</v>
+        <v>0.1377518978616195</v>
       </c>
       <c r="I13">
-        <v>0.03371715760286165</v>
+        <v>0.02886736508121679</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.887370276988996</v>
+        <v>0.6476498559074813</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2617829822135178</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2538669967283695</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.4963543489320459</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.5170708613298451</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.460843386015199</v>
+        <v>4.934417832702593</v>
       </c>
       <c r="C14">
-        <v>2.150845683246871</v>
+        <v>2.264347706768945</v>
       </c>
       <c r="D14">
-        <v>0.01903119348593263</v>
+        <v>0.02074302764668445</v>
       </c>
       <c r="E14">
-        <v>0.2353001059496904</v>
+        <v>0.2286116267486378</v>
       </c>
       <c r="F14">
-        <v>2.130483887861999</v>
+        <v>1.773990102015148</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1857559791944965</v>
+        <v>0.1843004330855535</v>
       </c>
       <c r="I14">
-        <v>0.03051115030562812</v>
+        <v>0.02639147665841524</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7912568671543454</v>
+        <v>0.5807660998588844</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2404506871747216</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2234992485034226</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5024204553637599</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.5390385191488676</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.34892385882182</v>
+        <v>4.83980566778456</v>
       </c>
       <c r="C15">
-        <v>2.097085144495225</v>
+        <v>2.206848507192319</v>
       </c>
       <c r="D15">
-        <v>0.01899620468002494</v>
+        <v>0.02121818763277439</v>
       </c>
       <c r="E15">
-        <v>0.1953657703986522</v>
+        <v>0.1892301217111836</v>
       </c>
       <c r="F15">
-        <v>2.062510315506898</v>
+        <v>1.719609732039032</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1972138021776146</v>
+        <v>0.1958528218485043</v>
       </c>
       <c r="I15">
-        <v>0.02930835544950394</v>
+        <v>0.02548873824924769</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.7635237797060412</v>
+        <v>0.5617701797268282</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2349742541628856</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2140636662876005</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5072493321151494</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.5470932495344449</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.00617726272236</v>
+        <v>4.53862087450841</v>
       </c>
       <c r="C16">
-        <v>1.962235012452993</v>
+        <v>2.064117023739811</v>
       </c>
       <c r="D16">
-        <v>0.0193074275429348</v>
+        <v>0.02109577596308831</v>
       </c>
       <c r="E16">
-        <v>0.186387784689952</v>
+        <v>0.1814393491103985</v>
       </c>
       <c r="F16">
-        <v>1.945872586413572</v>
+        <v>1.628433225304292</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1807115740124203</v>
+        <v>0.1796683646996655</v>
       </c>
       <c r="I16">
-        <v>0.02451111682070284</v>
+        <v>0.02168183024131043</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.7315395478562294</v>
+        <v>0.5436421846774664</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2351805114321195</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1975705922531432</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5297302349213595</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.5630998468287025</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.900011125456047</v>
+        <v>4.437403138160278</v>
       </c>
       <c r="C17">
-        <v>1.945457621544733</v>
+        <v>2.047526430866128</v>
       </c>
       <c r="D17">
-        <v>0.01981223529611886</v>
+        <v>0.02015490315200275</v>
       </c>
       <c r="E17">
-        <v>0.2706855281385643</v>
+        <v>0.2658418821366126</v>
       </c>
       <c r="F17">
-        <v>1.971814130893435</v>
+        <v>1.651280133441006</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1415421336313756</v>
+        <v>0.1406125931826381</v>
       </c>
       <c r="I17">
-        <v>0.02249630444508632</v>
+        <v>0.02006050099367584</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.7567208882629402</v>
+        <v>0.564520926985189</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2468374898952845</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2003966128575669</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5429554962568028</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.5636997795524046</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.992124303617061</v>
+        <v>4.502795163040275</v>
       </c>
       <c r="C18">
-        <v>2.028386254711904</v>
+        <v>2.137840799941557</v>
       </c>
       <c r="D18">
-        <v>0.02167034613126617</v>
+        <v>0.01926948046706567</v>
       </c>
       <c r="E18">
-        <v>0.5088047397623967</v>
+        <v>0.5030426746328018</v>
       </c>
       <c r="F18">
-        <v>2.131948117559432</v>
+        <v>1.781945307010574</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08966690151708434</v>
+        <v>0.08868805663408352</v>
       </c>
       <c r="I18">
-        <v>0.0223248837321286</v>
+        <v>0.01979777580004605</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.8398978858851365</v>
+        <v>0.6259163548024915</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2717336307064073</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2214499251406465</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5563513694707467</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.5554365341151168</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.225360663322135</v>
+        <v>4.686320542198132</v>
       </c>
       <c r="C19">
-        <v>2.194001558883087</v>
+        <v>2.316319487959163</v>
       </c>
       <c r="D19">
-        <v>0.02598655384880288</v>
+        <v>0.019791896411959</v>
       </c>
       <c r="E19">
-        <v>0.9534527794924088</v>
+        <v>0.945590171966586</v>
       </c>
       <c r="F19">
-        <v>2.385969794585549</v>
+        <v>1.986948444060431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04817680687045112</v>
+        <v>0.04697869152397516</v>
       </c>
       <c r="I19">
-        <v>0.02424730190488145</v>
+        <v>0.02132272531788537</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.962179465714442</v>
+        <v>0.7137029286963852</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3048361073204759</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2549862866496397</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5778024794533341</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.5483017234701073</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.883384397552675</v>
+        <v>5.225815960509294</v>
       </c>
       <c r="C20">
-        <v>2.585715098139303</v>
+        <v>2.736106259002668</v>
       </c>
       <c r="D20">
-        <v>0.03711935503459074</v>
+        <v>0.02386741765760192</v>
       </c>
       <c r="E20">
-        <v>1.962968972223564</v>
+        <v>1.948488214587428</v>
       </c>
       <c r="F20">
-        <v>2.921262441141323</v>
+        <v>2.414649769055671</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.03485770150283685</v>
+        <v>0.03282576751412858</v>
       </c>
       <c r="I20">
-        <v>0.03205321887721979</v>
+        <v>0.02743177999040558</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.205114889537299</v>
+        <v>0.8834519715485172</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3621087788657036</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3285183434843333</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6198813098176146</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.5394587474337555</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.697723962023474</v>
+        <v>5.922381811276466</v>
       </c>
       <c r="C21">
-        <v>2.962670748534833</v>
+        <v>3.136105850773561</v>
       </c>
       <c r="D21">
-        <v>0.03996785860880081</v>
+        <v>0.02445730622094722</v>
       </c>
       <c r="E21">
-        <v>2.324053742074994</v>
+        <v>2.302510706720057</v>
       </c>
       <c r="F21">
-        <v>3.319211724039604</v>
+        <v>2.726216415643677</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.04727821911261909</v>
+        <v>0.04412325741287226</v>
       </c>
       <c r="I21">
-        <v>0.04484329007219223</v>
+        <v>0.03740577714904436</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.349769938471411</v>
+        <v>0.9754082425622812</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3781532023177121</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3874809595982498</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5908909087090919</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5003921145184602</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.22443573022872</v>
+        <v>6.372742359597567</v>
       </c>
       <c r="C22">
-        <v>3.196209641994983</v>
+        <v>3.38355419059809</v>
       </c>
       <c r="D22">
-        <v>0.04146575104840977</v>
+        <v>0.02466968359101251</v>
       </c>
       <c r="E22">
-        <v>2.509905517220119</v>
+        <v>2.483462295979606</v>
       </c>
       <c r="F22">
-        <v>3.571126823325187</v>
+        <v>2.923103552348095</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.05568546384942419</v>
+        <v>0.05171176122902654</v>
       </c>
       <c r="I22">
-        <v>0.05388602166844514</v>
+        <v>0.04427729731194496</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.441345918941465</v>
+        <v>1.033536995492895</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3872921078316409</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4264204728133407</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5714433207455016</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.4755035284986393</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.953444222202791</v>
+        <v>6.141365407976195</v>
       </c>
       <c r="C23">
-        <v>3.068847086170422</v>
+        <v>3.248864369744695</v>
       </c>
       <c r="D23">
-        <v>0.04094440028461577</v>
+        <v>0.0247041834779278</v>
       </c>
       <c r="E23">
-        <v>2.410630275162148</v>
+        <v>2.38682236427212</v>
       </c>
       <c r="F23">
-        <v>3.444528701348048</v>
+        <v>2.824697587315853</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.05115430695221512</v>
+        <v>0.04762361482229238</v>
       </c>
       <c r="I23">
-        <v>0.04880946429923494</v>
+        <v>0.04030638561330413</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.397791339198236</v>
+        <v>1.00671273077063</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3839361130495504</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4072439805716925</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5837140933272522</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.4893333536442999</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.919664414109775</v>
+        <v>5.255115277417758</v>
       </c>
       <c r="C24">
-        <v>2.598828350645135</v>
+        <v>2.750650576256135</v>
       </c>
       <c r="D24">
-        <v>0.03850427129013312</v>
+        <v>0.0245433016246146</v>
       </c>
       <c r="E24">
-        <v>2.040739178133265</v>
+        <v>2.025822987676932</v>
       </c>
       <c r="F24">
-        <v>2.961558372887851</v>
+        <v>2.447568595299416</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0355657932697131</v>
+        <v>0.03348602678592183</v>
       </c>
       <c r="I24">
-        <v>0.03200342761785269</v>
+        <v>0.02720225995184045</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.227623177829372</v>
+        <v>0.9002401688169357</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3684674905479</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3348874309002312</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6285923771801691</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.5421870911172615</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.820984888619591</v>
+        <v>4.307212887771641</v>
       </c>
       <c r="C25">
-        <v>2.106233091696993</v>
+        <v>2.227291490633831</v>
       </c>
       <c r="D25">
-        <v>0.03583604953332653</v>
+        <v>0.02425470245713335</v>
       </c>
       <c r="E25">
-        <v>1.652675243628806</v>
+        <v>1.645430294905083</v>
       </c>
       <c r="F25">
-        <v>2.458124174685622</v>
+        <v>2.052841580814686</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02164873162050629</v>
+        <v>0.02073302276411537</v>
       </c>
       <c r="I25">
-        <v>0.01781494196955702</v>
+        <v>0.01593727284817437</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.050669734300754</v>
+        <v>0.7890687314202935</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3509790556548325</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2628827237189881</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.679939644609501</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6019110510814487</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
